--- a/translated.xlsx
+++ b/translated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vyvo/Documents/GitHub/LinkedIn_dsjob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6690228-1EAD-C949-90F2-5A27D0D10BAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6C5B86-7DBC-4F4B-A20E-FA2D5F6662D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16480" xr2:uid="{CE972EAE-2EFE-024E-BC66-44F7BAAAC479}"/>
   </bookViews>
@@ -288,9 +288,6 @@
     <t>France</t>
   </si>
   <si>
-    <t>German</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
@@ -1414,6 +1411,9 @@
   </si>
   <si>
     <t>Car industry</t>
+  </si>
+  <si>
+    <t>Germany</t>
   </si>
 </sst>
 </file>
@@ -1768,7 +1768,7 @@
   <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1787,19 +1787,19 @@
         <v>86</v>
       </c>
       <c r="E1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F1" t="s">
         <v>87</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>88</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>89</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>90</v>
-      </c>
-      <c r="I1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1810,25 +1810,25 @@
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
         <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1839,25 +1839,25 @@
         <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
         <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1868,19 +1868,19 @@
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
         <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G5" t="s">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I5" t="s">
         <v>0</v>
@@ -1935,16 +1935,16 @@
         <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1964,13 +1964,13 @@
         <v>78</v>
       </c>
       <c r="F7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G7" t="s">
         <v>77</v>
       </c>
       <c r="H7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I7" t="s">
         <v>77</v>
@@ -1987,22 +1987,22 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E8" t="s">
         <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2016,22 +2016,22 @@
         <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s">
         <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2042,7 +2042,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
         <v>83</v>
@@ -2054,10 +2054,10 @@
         <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
@@ -2071,10 +2071,10 @@
         <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E11" t="s">
         <v>84</v>
@@ -2083,13 +2083,13 @@
         <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2100,22 +2100,22 @@
         <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
         <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G12" t="s">
         <v>83</v>
       </c>
       <c r="H12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2126,22 +2126,22 @@
         <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2158,10 +2158,10 @@
         <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -2178,19 +2178,19 @@
         <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
         <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G15" t="s">
         <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I15" t="s">
         <v>12</v>
@@ -2204,22 +2204,22 @@
         <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" t="s">
+        <v>399</v>
+      </c>
+      <c r="I16" t="s">
         <v>104</v>
-      </c>
-      <c r="H16" t="s">
-        <v>400</v>
-      </c>
-      <c r="I16" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2227,22 +2227,22 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2250,22 +2250,22 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G18" t="s">
         <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2273,16 +2273,16 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H19" t="s">
         <v>12</v>
@@ -2299,19 +2299,19 @@
         <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H20" t="s">
         <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2319,22 +2319,22 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
       </c>
       <c r="H21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2342,19 +2342,19 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I22" t="s">
         <v>30</v>
@@ -2365,22 +2365,22 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G23" t="s">
         <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I23" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2391,13 +2391,13 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H24" t="s">
         <v>30</v>
@@ -2411,22 +2411,22 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E25" t="s">
         <v>81</v>
       </c>
       <c r="F25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H25" t="s">
         <v>16</v>
       </c>
       <c r="I25" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2434,22 +2434,22 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
         <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G26" t="s">
         <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2457,22 +2457,22 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G27" t="s">
         <v>62</v>
       </c>
       <c r="H27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2480,22 +2480,22 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2503,22 +2503,22 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F29" t="s">
         <v>21</v>
       </c>
       <c r="G29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H29" t="s">
         <v>6</v>
       </c>
       <c r="I29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2526,22 +2526,22 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2549,22 +2549,22 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I31" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2572,22 +2572,22 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E32" t="s">
         <v>80</v>
       </c>
       <c r="F32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I32" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2595,22 +2595,22 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I33" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2618,22 +2618,22 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G34" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2644,19 +2644,19 @@
         <v>76</v>
       </c>
       <c r="E35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2664,22 +2664,22 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2690,19 +2690,19 @@
         <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F37" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H37" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I37" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2710,22 +2710,22 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F38" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H38" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2733,22 +2733,22 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G39" t="s">
         <v>84</v>
       </c>
       <c r="H39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I39" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2756,22 +2756,22 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H40" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I40" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2779,22 +2779,22 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H41" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2802,22 +2802,22 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I42" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2828,16 +2828,16 @@
         <v>38</v>
       </c>
       <c r="E43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F43" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G43" t="s">
         <v>35</v>
       </c>
       <c r="H43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I43" t="s">
         <v>41</v>
@@ -2851,19 +2851,19 @@
         <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G44" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H44" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2871,22 +2871,22 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E45" t="s">
         <v>76</v>
       </c>
       <c r="F45" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G45" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I45" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2894,13 +2894,13 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G46" t="s">
         <v>48</v>
@@ -2909,7 +2909,7 @@
         <v>12</v>
       </c>
       <c r="I46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2917,19 +2917,19 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G47" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H47" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I47" t="s">
         <v>33</v>
@@ -2940,22 +2940,22 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F48" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G48" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2963,22 +2963,22 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F49" t="s">
         <v>42</v>
       </c>
       <c r="G49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H49" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2989,19 +2989,19 @@
         <v>48</v>
       </c>
       <c r="E50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F50" t="s">
         <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H50" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3009,22 +3009,22 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E51" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H51" t="s">
         <v>38</v>
       </c>
       <c r="I51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3032,22 +3032,22 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F52" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H52" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3055,19 +3055,19 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F53" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I53" t="s">
         <v>48</v>
@@ -3078,19 +3078,19 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F54" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G54" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H54" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I54" t="s">
         <v>46</v>
@@ -3101,19 +3101,19 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F55" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3121,19 +3121,19 @@
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E56" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G56" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H56" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3141,19 +3141,19 @@
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E57" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F57" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G57" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H57" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3161,16 +3161,16 @@
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F58" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G58" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H58" t="s">
         <v>54</v>
@@ -3181,19 +3181,19 @@
         <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E59" t="s">
         <v>59</v>
       </c>
       <c r="F59" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G59" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3201,19 +3201,19 @@
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F60" t="s">
         <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H60" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3221,19 +3221,19 @@
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G61" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H61" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3241,13 +3241,13 @@
         <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F62" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -3261,16 +3261,16 @@
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F63" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H63" t="s">
         <v>46</v>
@@ -3281,19 +3281,19 @@
         <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E64" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F64" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G64" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H64" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3301,19 +3301,19 @@
         <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E65" t="s">
         <v>46</v>
       </c>
       <c r="F65" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G65" t="s">
         <v>57</v>
       </c>
       <c r="H65" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3321,19 +3321,19 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F66" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H66" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3344,16 +3344,16 @@
         <v>69</v>
       </c>
       <c r="E67" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F67" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G67" t="s">
         <v>44</v>
       </c>
       <c r="H67" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3361,19 +3361,19 @@
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F68" t="s">
         <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H68" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3381,19 +3381,19 @@
         <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F69" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G69" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H69" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3401,19 +3401,19 @@
         <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E70" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F70" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G70" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H70" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3421,19 +3421,19 @@
         <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E71" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F71" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G71" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3441,70 +3441,70 @@
         <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E72" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F72" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G72" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H72" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="C73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E73" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F73" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G73" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H73" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="C74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F74" t="s">
         <v>56</v>
       </c>
       <c r="G74" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="C75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E75" t="s">
         <v>64</v>
       </c>
       <c r="F75" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G75" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3512,72 +3512,72 @@
         <v>41</v>
       </c>
       <c r="E76" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F76" t="s">
         <v>69</v>
       </c>
       <c r="G76" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H76" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="C77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E77" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F77" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G77" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H77" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="C78" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E78" t="s">
         <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G78" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H78" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="C79" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E79" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F79" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G79" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H79" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="C80" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E80" t="s">
         <v>54</v>
@@ -3586,7 +3586,7 @@
         <v>51</v>
       </c>
       <c r="G80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H80" t="s">
         <v>24</v>
@@ -3594,47 +3594,47 @@
     </row>
     <row r="81" spans="3:8">
       <c r="C81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F81" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G81" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H81" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="82" spans="3:8">
       <c r="E82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F82" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G82" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H82" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="83" spans="3:8">
       <c r="E83" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F83" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G83" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H83" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="84" spans="3:8">
@@ -3642,94 +3642,94 @@
         <v>57</v>
       </c>
       <c r="F84" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G84" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H84" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="85" spans="3:8">
       <c r="E85" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G85" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H85" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="86" spans="3:8">
       <c r="E86" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F86" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G86" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H86" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="87" spans="3:8">
       <c r="E87" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F87" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G87" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H87" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="88" spans="3:8">
       <c r="E88" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F88" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G88" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H88" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="89" spans="3:8">
       <c r="E89" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F89" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G89" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H89" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="90" spans="3:8">
       <c r="E90" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F90" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G90" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H90" t="s">
         <v>41</v>
@@ -3740,111 +3740,111 @@
         <v>66</v>
       </c>
       <c r="F91" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G91" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H91" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="92" spans="3:8">
       <c r="E92" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F92" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G92" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H92" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="93" spans="3:8">
       <c r="E93" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F93" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G93" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H93" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94" spans="3:8">
       <c r="E94" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F94" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G94" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H94" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="95" spans="3:8">
       <c r="E95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F95" t="s">
         <v>48</v>
       </c>
       <c r="G95" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H95" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="96" spans="3:8">
       <c r="E96" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F96" t="s">
         <v>66</v>
       </c>
       <c r="G96" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" spans="5:8">
       <c r="E97" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F97" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G97" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H97" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="98" spans="5:8">
       <c r="E98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F98" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G98" t="s">
         <v>54</v>
       </c>
       <c r="H98" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="99" spans="5:8">
@@ -3852,10 +3852,10 @@
         <v>61</v>
       </c>
       <c r="F99" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G99" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H99" t="s">
         <v>36</v>
@@ -3863,41 +3863,41 @@
     </row>
     <row r="100" spans="5:8">
       <c r="E100" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F100" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G100" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H100" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="5:8">
       <c r="E101" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F101" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G101" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H101" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="102" spans="5:8">
       <c r="E102" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F102" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G102" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H102" t="s">
         <v>48</v>
@@ -3905,135 +3905,135 @@
     </row>
     <row r="103" spans="5:8">
       <c r="E103" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F103" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G103" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H103" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="104" spans="5:8">
       <c r="E104" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F104" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G104" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H104" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="105" spans="5:8">
       <c r="E105" t="s">
+        <v>235</v>
+      </c>
+      <c r="F105" t="s">
+        <v>321</v>
+      </c>
+      <c r="G105" t="s">
         <v>236</v>
       </c>
-      <c r="F105" t="s">
-        <v>322</v>
-      </c>
-      <c r="G105" t="s">
-        <v>237</v>
-      </c>
       <c r="H105" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="106" spans="5:8">
       <c r="E106" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F106" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H106" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="107" spans="5:8">
       <c r="E107" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F107" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G107" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="108" spans="5:8">
       <c r="E108" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G108" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H108" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="109" spans="5:8">
       <c r="E109" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G109" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H109" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="110" spans="5:8">
       <c r="E110" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G110" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H110" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="111" spans="5:8">
       <c r="E111" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G111" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H111" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112" spans="5:8">
       <c r="E112" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G112" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H112" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="113" spans="5:8">
       <c r="E113" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G113" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H113" t="s">
         <v>51</v>
@@ -4041,26 +4041,26 @@
     </row>
     <row r="114" spans="5:8">
       <c r="E114" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H114" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="115" spans="5:8">
       <c r="E115" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H115" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="116" spans="5:8">
       <c r="E116" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H116" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="117" spans="5:8">
@@ -4068,35 +4068,35 @@
         <v>56</v>
       </c>
       <c r="H117" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="118" spans="5:8">
       <c r="E118" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H118" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="119" spans="5:8">
       <c r="H119" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="120" spans="5:8">
       <c r="H120" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121" spans="5:8">
       <c r="H121" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="122" spans="5:8">
       <c r="H122" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
